--- a/sport/output/7.xlsx
+++ b/sport/output/7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>month</t>
   </si>
@@ -46,151 +46,112 @@
     <t>July</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
     <t>September</t>
   </si>
   <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/a6568747-7b1f-8272-7756-74002c517728.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/357d25ba-0ea4-cd0f-9734-d753b618ce17.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/b4d85305-7dd9-b3d8-7423-7c6519046693.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/19d69ecf-58b5-b33b-cae2-6e078718149d.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/07ce6806-2f5e-ad44-6ca8-9d851173940a.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/e6e436b8-a330-d0f5-f606-d35c25db5544.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/829a96db-048b-12d0-170e-750d9a23d190.svg</t>
-  </si>
-  <si>
-    <t>https://static.wbsc.org/uploads/federations/0/events/photos/a96981f3-1eb0-dd11-ca80-2cb0e3959676.svg</t>
-  </si>
-  <si>
-    <t>Baseball Champions League Americas 2025</t>
-  </si>
-  <si>
-    <t>II WBSC U-15 Women's Softball World Cup 2025</t>
-  </si>
-  <si>
-    <t>XVIII WBSC Men's Softball World Cup 2025 - Finals</t>
-  </si>
-  <si>
-    <t>VIII WBSC U-12 Baseball World Cup 2025 presented by RAXUS</t>
-  </si>
-  <si>
-    <t>The World Games 2025 | Men's Softball</t>
-  </si>
-  <si>
-    <t>The World Games 2025 | Women's Softball</t>
-  </si>
-  <si>
-    <t>XXXII WBSC U-18 Baseball World Cup 2025 presented by RAXUS</t>
-  </si>
-  <si>
-    <t>II WBSC U-18 Women's Softball World Cup 2025 - Finals</t>
-  </si>
-  <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
-    <t>27/06/2025</t>
-  </si>
-  <si>
-    <t>08/07/2025</t>
-  </si>
-  <si>
-    <t>25/07/2025</t>
-  </si>
-  <si>
-    <t>06/08/2025</t>
-  </si>
-  <si>
-    <t>13/08/2025</t>
-  </si>
-  <si>
-    <t>05/09/2025</t>
-  </si>
-  <si>
-    <t>27/09/2025</t>
-  </si>
-  <si>
-    <t>13/04/2025</t>
-  </si>
-  <si>
-    <t>05/07/2025</t>
-  </si>
-  <si>
-    <t>14/07/2025</t>
-  </si>
-  <si>
-    <t>03/08/2025</t>
-  </si>
-  <si>
-    <t>10/08/2025</t>
-  </si>
-  <si>
-    <t>17/08/2025</t>
-  </si>
-  <si>
-    <t>14/09/2025</t>
-  </si>
-  <si>
-    <t>02/10/2025</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-baseball-champions-league-americas/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-u-15-womens-softball-world-cup/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-xviii-mens-softball-world-cup-finals/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-viii-u-12-baseball-world-cup/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-the-world-games-mens-softball/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-the-world-games-womens-softball/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-u18-baseball-world-cup/home</t>
-  </si>
-  <si>
-    <t>https://www.wbsc.org/en/events/2025-ii-u-18-womens-softball-world-cup-finals/home</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TPE</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>JPN</t>
+    <t>November</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/03a23336-b86e-d454-3eb5-80efda188c0f.svg</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/b65d6670-6582-cafc-6d62-87b4118247b2.svg</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/ab6da77a-3d9c-a4af-906e-148a38db9f79.svg</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/34113b32-efcf-38cf-fd13-6deb9a8157d4.svg</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/278026a1-2c57-cd87-7f64-7920006810d6.svg</t>
+  </si>
+  <si>
+    <t>https://static.wbsc.org/uploads/federations/0/events/photos/5957fcc0-3af6-7d03-890e-69aaa3669f01.svg</t>
+  </si>
+  <si>
+    <t>WBSC U-23 Men's Softball World Cup 2026</t>
+  </si>
+  <si>
+    <t>WBSC Women's Softball World Cup 2026 - Group A</t>
+  </si>
+  <si>
+    <t>WBSC Women's Softball World Cup 2026 - Group B</t>
+  </si>
+  <si>
+    <t>WBSC Women's Baseball World Cup 2026 - Group Stage</t>
+  </si>
+  <si>
+    <t>WBSC Women's Softball World Cup 2026 - Group C</t>
+  </si>
+  <si>
+    <t>WBSC U-23 Baseball World Cup 2026</t>
+  </si>
+  <si>
+    <t>25/04/2026</t>
+  </si>
+  <si>
+    <t>16/06/2026</t>
+  </si>
+  <si>
+    <t>21/07/2026</t>
+  </si>
+  <si>
+    <t>22/07/2026</t>
+  </si>
+  <si>
+    <t>17/09/2026</t>
+  </si>
+  <si>
+    <t>06/11/2026</t>
+  </si>
+  <si>
+    <t>03/05/2026</t>
+  </si>
+  <si>
+    <t>20/06/2026</t>
+  </si>
+  <si>
+    <t>26/07/2026</t>
+  </si>
+  <si>
+    <t>21/09/2026</t>
+  </si>
+  <si>
+    <t>15/11/2026</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-ii-wbsc-u-23-mens-softball-world-cup/home</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-wbsc-womens-softball-world-cup-group-a/home</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-wbsc-womens-softball-world-cup-group-b/home</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-x-womens-baseball-world-cup-group-stage/home</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-wbsc-womens-softball-world-cup-group-c/home</t>
+  </si>
+  <si>
+    <t>https://www.wbsc.org/en/events/2026-vi-wbsc-u-23-baseball-world-cup/home</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>PER</t>
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>NCA</t>
   </si>
 </sst>
 </file>
@@ -561,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,19 +559,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -621,19 +582,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -644,19 +605,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -667,19 +628,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -690,88 +651,42 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +703,6 @@
     <hyperlink ref="F6" r:id="rId10"/>
     <hyperlink ref="B7" r:id="rId11"/>
     <hyperlink ref="F7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="F8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="F9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
